--- a/biology/Biologie cellulaire et moléculaire/Diplosome/Diplosome.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Diplosome/Diplosome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie cellulaire, le diplosome est l'ensemble des deux centrioles, disposés perpendiculairement et situés près du nucleus, dans une cellule eucaryote. Il est présent dans toutes les cellules eucaryotes excepté les plantes, et joue un rôle important dans la mitose.
  Portail de la biologie cellulaire et moléculaire                     </t>
